--- a/BI需求列表.xlsx
+++ b/BI需求列表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="100" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="需求列表" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="102">
   <si>
     <t>id</t>
   </si>
@@ -375,24 +375,27 @@
   <si>
     <t>徐清</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王盛波</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -400,7 +403,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -408,7 +411,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -530,15 +533,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -580,7 +591,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -612,9 +623,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -646,6 +658,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -821,29 +834,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
+      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.08984375" customWidth="1"/>
+    <col min="9" max="9" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.1796875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="32" bestFit="1" customWidth="1"/>
   </cols>
@@ -947,7 +960,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="28.8" hidden="1">
+    <row r="3" spans="1:18" ht="29" hidden="1">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -990,7 +1003,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="43.2" hidden="1">
+    <row r="4" spans="1:18" ht="43.5" hidden="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1162,7 +1175,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="28.8" hidden="1">
+    <row r="8" spans="1:18" ht="29" hidden="1">
       <c r="A8" s="2">
         <v>8</v>
       </c>
@@ -1205,7 +1218,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="43.2" hidden="1">
+    <row r="9" spans="1:18" ht="43.5" hidden="1">
       <c r="A9" s="2">
         <v>9</v>
       </c>
@@ -1248,7 +1261,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="28.8" hidden="1">
+    <row r="10" spans="1:18" ht="29" hidden="1">
       <c r="A10" s="2">
         <v>10</v>
       </c>
@@ -1341,7 +1354,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="28.8" hidden="1">
+    <row r="12" spans="1:18" ht="29" hidden="1">
       <c r="A12" s="8">
         <v>14</v>
       </c>
@@ -1559,7 +1572,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="28.8" hidden="1">
+    <row r="17" spans="1:18" ht="29" hidden="1">
       <c r="A17" s="2">
         <v>19</v>
       </c>
@@ -1774,7 +1787,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="28.8" hidden="1">
+    <row r="22" spans="1:18" ht="29" hidden="1">
       <c r="A22" s="2">
         <v>24</v>
       </c>
@@ -1859,7 +1872,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="28.8">
+    <row r="24" spans="1:18" ht="29">
       <c r="A24" s="2">
         <v>26</v>
       </c>
@@ -2152,7 +2165,7 @@
         <v>94</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G31" s="11"/>
       <c r="H31" s="5">
@@ -2193,8 +2206,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:Q31">
-    <filterColumn colId="6"/>
-    <filterColumn colId="7"/>
     <filterColumn colId="12">
       <filters>
         <filter val="进行中"/>
@@ -2209,16 +2220,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19:A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">

--- a/BI需求列表.xlsx
+++ b/BI需求列表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="100" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="需求列表" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="106">
   <si>
     <t>id</t>
   </si>
@@ -349,53 +349,68 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>王盛波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洪津涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王盛波</t>
+  </si>
+  <si>
+    <t>产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李升飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号注册用户和淘宝注册用户</t>
+  </si>
+  <si>
     <t>活跃和其他用户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>王盛波</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洪津涛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>徐清</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐清</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王盛波</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -403,7 +418,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -411,7 +426,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -482,7 +497,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -528,12 +543,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -549,7 +561,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -591,7 +603,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -623,10 +635,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -658,7 +669,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -834,29 +844,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
+      <selection pane="bottomLeft" sqref="A1:N32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" customWidth="1"/>
-    <col min="9" max="9" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="32" bestFit="1" customWidth="1"/>
   </cols>
@@ -960,7 +970,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="29" hidden="1">
+    <row r="3" spans="1:18" ht="28.8" hidden="1">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1003,7 +1013,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="43.5" hidden="1">
+    <row r="4" spans="1:18" ht="43.2" hidden="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1175,7 +1185,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="29" hidden="1">
+    <row r="8" spans="1:18" ht="28.8" hidden="1">
       <c r="A8" s="2">
         <v>8</v>
       </c>
@@ -1218,7 +1228,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="43.5" hidden="1">
+    <row r="9" spans="1:18" ht="43.2" hidden="1">
       <c r="A9" s="2">
         <v>9</v>
       </c>
@@ -1261,7 +1271,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="29" hidden="1">
+    <row r="10" spans="1:18" ht="28.8" hidden="1">
       <c r="A10" s="2">
         <v>10</v>
       </c>
@@ -1342,7 +1352,7 @@
         <v>42487</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1354,7 +1364,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="29" hidden="1">
+    <row r="12" spans="1:18" ht="28.8" hidden="1">
       <c r="A12" s="8">
         <v>14</v>
       </c>
@@ -1572,7 +1582,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="29" hidden="1">
+    <row r="17" spans="1:18" ht="28.8" hidden="1">
       <c r="A17" s="2">
         <v>19</v>
       </c>
@@ -1787,7 +1797,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="29" hidden="1">
+    <row r="22" spans="1:18" ht="28.8" hidden="1">
       <c r="A22" s="2">
         <v>24</v>
       </c>
@@ -1872,7 +1882,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="29">
+    <row r="24" spans="1:18" ht="28.8">
       <c r="A24" s="2">
         <v>26</v>
       </c>
@@ -1889,7 +1899,7 @@
         <v>64</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G24" s="2">
         <v>4</v>
@@ -1995,13 +2005,13 @@
         <v>49</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -2022,7 +2032,7 @@
         <v>42486</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -2089,7 +2099,7 @@
         <v>92</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G29" s="2">
         <v>7</v>
@@ -2106,7 +2116,7 @@
       <c r="M29" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N29" s="11"/>
+      <c r="N29" s="2"/>
       <c r="O29" s="11"/>
       <c r="P29" s="11"/>
       <c r="Q29" s="11"/>
@@ -2129,20 +2139,20 @@
         <v>93</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G30" s="11"/>
+        <v>94</v>
+      </c>
+      <c r="G30" s="2"/>
       <c r="H30" s="5">
         <v>42482</v>
       </c>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
       <c r="M30" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N30" s="11"/>
+      <c r="N30" s="2"/>
       <c r="O30" s="11"/>
       <c r="P30" s="11"/>
       <c r="Q30" s="11"/>
@@ -2161,44 +2171,56 @@
       <c r="D31" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E31" s="12" t="s">
-        <v>94</v>
+      <c r="E31" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G31" s="11"/>
+        <v>100</v>
+      </c>
+      <c r="G31" s="2"/>
       <c r="H31" s="5">
         <v>42482</v>
       </c>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
       <c r="M31" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N31" s="11"/>
+      <c r="N31" s="2"/>
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
       <c r="Q31" s="11"/>
       <c r="R31" s="11"/>
     </row>
     <row r="32" spans="1:18">
-      <c r="A32" s="11"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
+      <c r="A32" s="2">
+        <v>34</v>
+      </c>
+      <c r="B32" s="5">
+        <v>42495</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
       <c r="O32" s="11"/>
       <c r="P32" s="11"/>
       <c r="Q32" s="11"/>
@@ -2220,16 +2242,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19:A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">

--- a/BI需求列表.xlsx
+++ b/BI需求列表.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="107">
   <si>
     <t>id</t>
   </si>
@@ -392,6 +392,10 @@
   </si>
   <si>
     <t>徐清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -850,7 +854,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:N32"/>
+      <selection pane="bottomLeft" activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1864,10 +1868,10 @@
         <v>42479</v>
       </c>
       <c r="I23" s="5">
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="J23" s="5">
-        <v>42496</v>
+        <v>42500</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -1916,7 +1920,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>

--- a/BI需求列表.xlsx
+++ b/BI需求列表.xlsx
@@ -11,7 +11,7 @@
     <sheet name="状态" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">需求列表!$A$1:$Q$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">需求列表!$A$1:$Q$32</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -273,10 +273,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>进行中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新增</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -392,6 +388,10 @@
   </si>
   <si>
     <t>徐清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -854,7 +854,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M24" sqref="M24"/>
+      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -898,7 +898,7 @@
         <v>66</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>35</v>
@@ -928,7 +928,7 @@
         <v>1</v>
       </c>
       <c r="R1" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:18" hidden="1">
@@ -1356,16 +1356,16 @@
         <v>42487</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="28.8" hidden="1">
@@ -1497,7 +1497,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" hidden="1">
       <c r="A15" s="2">
         <v>17</v>
       </c>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -1540,7 +1540,7 @@
         <v>47</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:18" hidden="1">
@@ -1859,7 +1859,7 @@
         <v>50</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G23" s="2">
         <v>4</v>
@@ -1883,10 +1883,10 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="28.8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="28.8" hidden="1">
       <c r="A24" s="2">
         <v>26</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>64</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G24" s="2">
         <v>4</v>
@@ -1920,14 +1920,14 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:18" hidden="1">
@@ -1956,7 +1956,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -2009,13 +2009,13 @@
         <v>49</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -2036,7 +2036,7 @@
         <v>42486</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -2083,7 +2083,7 @@
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -2100,10 +2100,10 @@
         <v>65</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G29" s="2">
         <v>7</v>
@@ -2140,10 +2140,10 @@
         <v>65</v>
       </c>
       <c r="E30" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="5">
@@ -2176,10 +2176,10 @@
         <v>65</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="5">
@@ -2198,7 +2198,7 @@
       <c r="Q31" s="11"/>
       <c r="R31" s="11"/>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" hidden="1">
       <c r="A32" s="2">
         <v>34</v>
       </c>
@@ -2206,16 +2206,16 @@
         <v>42495</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F32" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -2231,10 +2231,9 @@
       <c r="R32" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q31">
+  <autoFilter ref="A1:Q32">
     <filterColumn colId="12">
       <filters>
-        <filter val="进行中"/>
         <filter val="新增"/>
       </filters>
     </filterColumn>
@@ -2292,10 +2291,10 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2340,37 +2339,37 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/BI需求列表.xlsx
+++ b/BI需求列表.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="108">
   <si>
     <t>id</t>
   </si>
@@ -396,6 +396,10 @@
   </si>
   <si>
     <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -854,7 +858,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
+      <selection pane="bottomLeft" activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2198,7 +2202,7 @@
       <c r="Q31" s="11"/>
       <c r="R31" s="11"/>
     </row>
-    <row r="32" spans="1:18" hidden="1">
+    <row r="32" spans="1:18">
       <c r="A32" s="2">
         <v>34</v>
       </c>
@@ -2223,7 +2227,9 @@
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
+      <c r="M32" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" s="11"/>
       <c r="P32" s="11"/>

--- a/BI需求列表.xlsx
+++ b/BI需求列表.xlsx
@@ -173,9 +173,6 @@
     <t>运营</t>
   </si>
   <si>
-    <t>活动商品全站成交</t>
-  </si>
-  <si>
     <t>未定</t>
   </si>
   <si>
@@ -400,6 +397,10 @@
   </si>
   <si>
     <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动商品全站成交</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -858,7 +859,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M32" sqref="M32"/>
+      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -896,13 +897,13 @@
         <v>34</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>35</v>
@@ -932,7 +933,7 @@
         <v>1</v>
       </c>
       <c r="R1" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:18" hidden="1">
@@ -1035,7 +1036,7 @@
         <v>9</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>5</v>
@@ -1207,7 +1208,7 @@
         <v>9</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>5</v>
@@ -1250,7 +1251,7 @@
         <v>9</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>5</v>
@@ -1293,7 +1294,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>5</v>
@@ -1360,16 +1361,16 @@
         <v>42487</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="28.8" hidden="1">
@@ -1535,7 +1536,7 @@
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -1544,7 +1545,7 @@
         <v>47</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:18" hidden="1">
@@ -1604,7 +1605,7 @@
         <v>24</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>5</v>
@@ -1860,10 +1861,10 @@
         <v>9</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G23" s="2">
         <v>4</v>
@@ -1880,14 +1881,14 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="28.8" hidden="1">
@@ -1904,10 +1905,10 @@
         <v>9</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G24" s="2">
         <v>4</v>
@@ -1924,14 +1925,14 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:18" hidden="1">
@@ -1948,10 +1949,10 @@
         <v>9</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -1960,7 +1961,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -1982,10 +1983,10 @@
         <v>9</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -1994,7 +1995,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -2013,13 +2014,13 @@
         <v>49</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -2040,7 +2041,7 @@
         <v>42486</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -2059,13 +2060,13 @@
         <v>14</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F28" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G28" s="2">
         <v>3</v>
@@ -2080,14 +2081,14 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -2101,13 +2102,13 @@
         <v>14</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G29" s="2">
         <v>7</v>
@@ -2122,7 +2123,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="11"/>
@@ -2141,13 +2142,13 @@
         <v>14</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E30" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="5">
@@ -2158,7 +2159,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="11"/>
@@ -2177,13 +2178,13 @@
         <v>14</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="5">
@@ -2194,7 +2195,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="11"/>
@@ -2210,25 +2211,33 @@
         <v>42495</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F32" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="G32" s="2">
+        <v>4</v>
+      </c>
+      <c r="H32" s="5">
+        <v>42495</v>
+      </c>
+      <c r="I32" s="5">
+        <v>42501</v>
+      </c>
+      <c r="J32" s="5">
+        <v>42506</v>
+      </c>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="11"/>
@@ -2265,42 +2274,42 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>68</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>71</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>73</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2345,37 +2354,37 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/BI需求列表.xlsx
+++ b/BI需求列表.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="109">
   <si>
     <t>id</t>
   </si>
@@ -401,6 +401,10 @@
   </si>
   <si>
     <t>活动商品全站成交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推迟，20160506开始负责陈斌埋点点击统计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -859,7 +863,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
+      <selection pane="bottomLeft" activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -877,7 +881,7 @@
     <col min="14" max="14" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="32" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="42.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -1886,7 +1890,9 @@
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
+      <c r="Q23" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="R23" s="11" t="s">
         <v>79</v>
       </c>

--- a/BI需求列表.xlsx
+++ b/BI需求列表.xlsx
@@ -11,14 +11,14 @@
     <sheet name="状态" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">需求列表!$A$1:$Q$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">需求列表!$A$1:$Q$35</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="116">
   <si>
     <t>id</t>
   </si>
@@ -318,93 +318,121 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>已验收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日报表22号完成，月报表27日完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王盛波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洪津涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王盛波</t>
+  </si>
+  <si>
+    <t>产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李升飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号注册用户和淘宝注册用户</t>
+  </si>
+  <si>
+    <t>活跃和其他用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动商品全站成交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推迟，20160506开始负责陈斌埋点点击统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈斌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居家百货,数码电器模块点击统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居家百货,数码电器banner点击统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居家百货,数码电器商品类目商品点击统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>开发完成，待验收</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已验收</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日报表22号完成，月报表27日完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王盛波</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洪津涛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐清</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐清</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王盛波</t>
-  </si>
-  <si>
-    <t>产品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李升飞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号注册用户和淘宝注册用户</t>
-  </si>
-  <si>
-    <t>活跃和其他用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐清</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动商品全站成交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推迟，20160506开始负责陈斌埋点点击统计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,7 +487,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -495,22 +523,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -520,28 +539,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -553,8 +554,41 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -859,11 +893,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G39" sqref="G39"/>
+      <selection pane="bottomLeft" activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -872,9 +906,9 @@
     <col min="2" max="2" width="12.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="43.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" style="10" customWidth="1"/>
     <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="11.77734375" bestFit="1" customWidth="1"/>
@@ -885,977 +919,996 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="R1" s="11" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:18" hidden="1">
-      <c r="A2" s="8">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="17">
         <v>42430</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="9">
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="17">
         <v>42451</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="17">
         <v>42451</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="17">
         <v>42451</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="17">
         <v>42451</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8" t="s">
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16" t="s">
         <v>7</v>
       </c>
+      <c r="R2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="28.8" hidden="1">
-      <c r="A3" s="2">
+      <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="9">
         <v>42430</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="5">
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="9">
         <v>42451</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="9">
         <v>42451</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="9">
         <v>42451</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="9">
         <v>42451</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2" t="s">
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12" t="s">
         <v>7</v>
       </c>
+      <c r="R3" s="13"/>
     </row>
     <row r="4" spans="1:18" ht="43.2" hidden="1">
-      <c r="A4" s="2">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="9">
         <v>42430</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="5">
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="9">
         <v>42451</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="9">
         <v>42451</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="9">
         <v>42451</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="9">
         <v>42451</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2" t="s">
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12" t="s">
         <v>7</v>
       </c>
+      <c r="R4" s="13"/>
     </row>
     <row r="5" spans="1:18" hidden="1">
-      <c r="A5" s="2">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="9">
         <v>42433</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="5">
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="9">
         <v>42459</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="9">
         <v>42459</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="9">
         <v>42459</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="9">
         <v>42459</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2" t="s">
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12" t="s">
         <v>7</v>
       </c>
+      <c r="R5" s="13"/>
     </row>
     <row r="6" spans="1:18" hidden="1">
-      <c r="A6" s="2">
+      <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="9">
         <v>42447</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="5">
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="9">
         <v>42459</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="9">
         <v>42459</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="9">
         <v>42459</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="9">
         <v>42459</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2" t="s">
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12" t="s">
         <v>7</v>
       </c>
+      <c r="R6" s="13"/>
     </row>
     <row r="7" spans="1:18" hidden="1">
-      <c r="A7" s="2">
+      <c r="A7" s="12">
         <v>7</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="9">
         <v>42452</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="5">
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="9">
         <v>42454</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="9">
         <v>42454</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="9">
         <v>42454</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="9">
         <v>42454</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2" t="s">
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12" t="s">
         <v>7</v>
       </c>
+      <c r="R7" s="13"/>
     </row>
     <row r="8" spans="1:18" ht="28.8" hidden="1">
-      <c r="A8" s="2">
+      <c r="A8" s="12">
         <v>8</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="9">
         <v>42430</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="5">
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="9">
         <v>42454</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="9">
         <v>42465</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="9">
         <v>42454</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="9">
         <v>42465</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2" t="s">
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12" t="s">
         <v>7</v>
       </c>
+      <c r="R8" s="13"/>
     </row>
     <row r="9" spans="1:18" ht="43.2" hidden="1">
-      <c r="A9" s="2">
+      <c r="A9" s="12">
         <v>9</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="9">
         <v>42430</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="5">
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="9">
         <v>42454</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="9">
         <v>42451</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="9">
         <v>42454</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="9">
         <v>42451</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2" t="s">
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12" t="s">
         <v>7</v>
       </c>
+      <c r="R9" s="13"/>
     </row>
     <row r="10" spans="1:18" ht="28.8" hidden="1">
-      <c r="A10" s="2">
+      <c r="A10" s="12">
         <v>10</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="9">
         <v>42430</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="5">
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="9">
         <v>42454</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="9">
         <v>42451</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="9">
         <v>42454</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="9">
         <v>42451</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="M10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2" t="s">
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12" t="s">
         <v>7</v>
       </c>
+      <c r="R10" s="13"/>
     </row>
     <row r="11" spans="1:18" hidden="1">
-      <c r="A11" s="2">
+      <c r="A11" s="12">
         <v>12</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="9">
         <v>42445</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="12">
         <v>7</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="9">
         <v>42478</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="9">
         <v>42478</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="9">
         <v>42487</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="9">
         <v>42475</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="9">
         <v>42487</v>
       </c>
-      <c r="M11" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="R11" s="11" t="s">
+      <c r="M11" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="R11" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="28.8" hidden="1">
-      <c r="A12" s="8">
+      <c r="A12" s="16">
         <v>14</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="17">
         <v>42458</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="9">
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="17">
         <v>42472</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="17">
         <v>42472</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="17">
         <v>42472</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="17">
         <v>42472</v>
       </c>
-      <c r="M12" s="8" t="s">
+      <c r="M12" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8" t="s">
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16" t="s">
         <v>7</v>
       </c>
+      <c r="R12" s="13"/>
     </row>
     <row r="13" spans="1:18" hidden="1">
-      <c r="A13" s="2">
+      <c r="A13" s="12">
         <v>15</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="9">
         <v>42460</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="5">
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="9">
         <v>42466</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="9">
         <v>42466</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="9">
         <v>42466</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="9">
         <v>42466</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2" t="s">
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12" t="s">
         <v>7</v>
       </c>
+      <c r="R13" s="13"/>
     </row>
     <row r="14" spans="1:18" hidden="1">
-      <c r="A14" s="2">
+      <c r="A14" s="12">
         <v>16</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="9">
         <v>42460</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="5">
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="9">
         <v>42471</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="9">
         <v>42471</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="9">
         <v>42471</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="9">
         <v>42471</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2" t="s">
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12" t="s">
         <v>7</v>
       </c>
+      <c r="R14" s="13"/>
     </row>
     <row r="15" spans="1:18" hidden="1">
-      <c r="A15" s="2">
+      <c r="A15" s="12">
         <v>17</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="9">
         <v>42465</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="5">
+      <c r="G15" s="12"/>
+      <c r="H15" s="9">
         <v>42472</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="9">
         <v>42472</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="9">
         <v>42482</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="9">
         <v>42472</v>
       </c>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2" t="s">
+      <c r="L15" s="12"/>
+      <c r="M15" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="R15" s="11" t="s">
+      <c r="R15" s="12" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:18" hidden="1">
-      <c r="A16" s="8">
+      <c r="A16" s="16">
         <v>18</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="17">
         <v>42465</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9">
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="17">
         <v>42472</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="17">
         <v>42472</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="17">
         <v>42472</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="17">
         <v>42472</v>
       </c>
-      <c r="M16" s="8" t="s">
+      <c r="M16" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8" t="s">
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16" t="s">
         <v>7</v>
       </c>
+      <c r="R16" s="13"/>
     </row>
     <row r="17" spans="1:18" ht="28.8" hidden="1">
-      <c r="A17" s="2">
+      <c r="A17" s="12">
         <v>19</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="9">
         <v>42467</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="5">
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="9">
         <v>42471</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="9">
         <v>42471</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="9">
         <v>42471</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="9">
         <v>42471</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="M17" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2" t="s">
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12" t="s">
         <v>7</v>
       </c>
+      <c r="R17" s="13"/>
     </row>
     <row r="18" spans="1:18" hidden="1">
-      <c r="A18" s="2">
+      <c r="A18" s="12">
         <v>20</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="9">
         <v>42466</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="5">
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="9">
         <v>40179</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="9">
         <v>42472</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="9">
         <v>40179</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="9">
         <v>42472</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="M18" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2" t="s">
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12" t="s">
         <v>7</v>
       </c>
+      <c r="R18" s="13"/>
     </row>
     <row r="19" spans="1:18" hidden="1">
-      <c r="A19" s="2">
+      <c r="A19" s="12">
         <v>21</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="9">
         <v>42468</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="5">
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="9">
         <v>42471</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="9">
         <v>42471</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="9">
         <v>42471</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="9">
         <v>42471</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="M19" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2" t="s">
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12" t="s">
         <v>7</v>
       </c>
+      <c r="R19" s="13"/>
     </row>
     <row r="20" spans="1:18" hidden="1">
-      <c r="A20" s="2">
+      <c r="A20" s="12">
         <v>22</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="9">
         <v>42471</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="5">
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="9">
         <v>42472</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="9">
         <v>42473</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20" s="9">
         <v>42472</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L20" s="9">
         <v>42473</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2" t="s">
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12" t="s">
         <v>7</v>
       </c>
+      <c r="R20" s="13"/>
     </row>
     <row r="21" spans="1:18" hidden="1">
-      <c r="A21" s="2">
+      <c r="A21" s="12">
         <v>23</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="9">
         <v>42472</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="5">
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="9">
         <v>42472</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="9">
         <v>42473</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" s="9">
         <v>42472</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21" s="9">
         <v>42475</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="M21" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2" t="s">
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12" t="s">
         <v>7</v>
       </c>
+      <c r="R21" s="13"/>
     </row>
     <row r="22" spans="1:18" ht="28.8" hidden="1">
-      <c r="A22" s="2">
+      <c r="A22" s="12">
         <v>24</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="9">
         <v>42473</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="5">
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="9">
         <v>42473</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="9">
         <v>42475</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22" s="9">
         <v>42473</v>
       </c>
-      <c r="L22" s="5">
+      <c r="L22" s="9">
         <v>42474</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="13"/>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="2">
         <v>25</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="3">
         <v>42475</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -1865,7 +1918,7 @@
         <v>9</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>77</v>
@@ -1873,13 +1926,13 @@
       <c r="G23" s="2">
         <v>4</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="3">
         <v>42479</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="3">
         <v>42496</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="3">
         <v>42500</v>
       </c>
       <c r="K23" s="2"/>
@@ -1889,97 +1942,97 @@
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="R23" s="11" t="s">
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="R23" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="28.8" hidden="1">
-      <c r="A24" s="2">
+      <c r="A24" s="16">
         <v>26</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="17">
         <v>42475</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G24" s="2">
+      <c r="F24" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" s="16">
         <v>4</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="17">
         <v>42479</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I24" s="17">
         <v>42488</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="17">
         <v>42494</v>
       </c>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="11" t="s">
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:18" hidden="1">
-      <c r="A25" s="2">
+      <c r="A25" s="12">
         <v>27</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="9">
         <v>42475</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2" t="s">
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="11"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="2">
         <v>28</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="3">
         <v>42475</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -1995,7 +2048,7 @@
         <v>50</v>
       </c>
       <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+      <c r="H26" s="3"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -2005,61 +2058,61 @@
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="11"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
     </row>
     <row r="27" spans="1:18" hidden="1">
-      <c r="A27" s="2">
+      <c r="A27" s="16">
         <v>29</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="17">
         <v>42475</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" s="2" t="s">
+      <c r="G27" s="16">
+        <v>1</v>
+      </c>
+      <c r="H27" s="17">
+        <v>42486</v>
+      </c>
+      <c r="I27" s="17">
+        <v>42486</v>
+      </c>
+      <c r="J27" s="17">
+        <v>42486</v>
+      </c>
+      <c r="K27" s="17">
+        <v>42486</v>
+      </c>
+      <c r="L27" s="17">
+        <v>42486</v>
+      </c>
+      <c r="M27" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="G27" s="2">
-        <v>1</v>
-      </c>
-      <c r="H27" s="5">
-        <v>42486</v>
-      </c>
-      <c r="I27" s="5">
-        <v>42486</v>
-      </c>
-      <c r="J27" s="5">
-        <v>42486</v>
-      </c>
-      <c r="K27" s="5">
-        <v>42486</v>
-      </c>
-      <c r="L27" s="5">
-        <v>42486</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="11"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="2">
         <v>30</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="3">
         <v>42479</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -2077,11 +2130,11 @@
       <c r="G28" s="2">
         <v>3</v>
       </c>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5">
+      <c r="H28" s="3"/>
+      <c r="I28" s="3">
         <v>42487</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J28" s="3">
         <v>42489</v>
       </c>
       <c r="K28" s="2"/>
@@ -2091,9 +2144,9 @@
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="11" t="s">
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2101,63 +2154,63 @@
       <c r="A29" s="2">
         <v>31</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="3">
         <v>42480</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E29" s="12" t="s">
-        <v>90</v>
+      <c r="E29" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G29" s="2">
         <v>7</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="3">
         <v>42482</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I29" s="3">
         <v>42485</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
-      <c r="M29" s="2" t="s">
-        <v>51</v>
+      <c r="M29" t="s">
+        <v>115</v>
       </c>
       <c r="N29" s="2"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
     </row>
     <row r="30" spans="1:18">
-      <c r="A30" s="12">
+      <c r="A30" s="6">
         <v>32</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="3">
         <v>42480</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="G30" s="2"/>
-      <c r="H30" s="5">
+      <c r="H30" s="3">
         <v>42482</v>
       </c>
       <c r="I30" s="2"/>
@@ -2168,32 +2221,32 @@
         <v>51</v>
       </c>
       <c r="N30" s="2"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="11"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
     </row>
     <row r="31" spans="1:18">
-      <c r="A31" s="12">
+      <c r="A31" s="6">
         <v>33</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="3">
         <v>42480</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>102</v>
+      <c r="E31" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G31" s="2"/>
-      <c r="H31" s="5">
+      <c r="H31" s="3">
         <v>42482</v>
       </c>
       <c r="I31" s="2"/>
@@ -2204,57 +2257,190 @@
         <v>51</v>
       </c>
       <c r="N31" s="2"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="11"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="2">
         <v>34</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="3">
         <v>42495</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F32" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G32" s="2">
         <v>4</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32" s="3">
         <v>42495</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I32" s="3">
         <v>42501</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J32" s="3">
         <v>42506</v>
       </c>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N32" s="2"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="11"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" s="6">
+        <v>35</v>
+      </c>
+      <c r="B33" s="3">
+        <v>42489</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G33" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H33" s="3">
+        <v>42496</v>
+      </c>
+      <c r="I33" s="3">
+        <v>42496</v>
+      </c>
+      <c r="J33" s="3">
+        <v>42496</v>
+      </c>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34" s="6">
+        <v>36</v>
+      </c>
+      <c r="B34" s="3">
+        <v>42489</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G34" s="2">
+        <v>1</v>
+      </c>
+      <c r="H34" s="3">
+        <v>42496</v>
+      </c>
+      <c r="I34" s="3">
+        <v>42499</v>
+      </c>
+      <c r="J34" s="3">
+        <v>42499</v>
+      </c>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35" s="6">
+        <v>37</v>
+      </c>
+      <c r="B35" s="3">
+        <v>42489</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G35" s="2">
+        <v>1</v>
+      </c>
+      <c r="H35" s="3">
+        <v>42496</v>
+      </c>
+      <c r="I35" s="3">
+        <v>42500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>42500</v>
+      </c>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12" t="s">
+        <v>114</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q32">
+  <autoFilter ref="A1:Q35">
     <filterColumn colId="12">
       <filters>
+        <filter val="开发完成，待验收"/>
         <filter val="新增"/>
       </filters>
     </filterColumn>
@@ -2270,7 +2456,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:A25"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2279,84 +2465,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="7" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="5" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="5" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
@@ -2380,17 +2566,17 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/BI需求列表.xlsx
+++ b/BI需求列表.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="117">
   <si>
     <t>id</t>
   </si>
@@ -433,6 +433,10 @@
   </si>
   <si>
     <t>开发完成，待验收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -897,7 +901,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K45" sqref="K45"/>
+      <selection pane="bottomLeft" activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2338,7 +2342,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>

--- a/BI需求列表.xlsx
+++ b/BI需求列表.xlsx
@@ -899,9 +899,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M33" sqref="M33"/>
+      <selection pane="bottomLeft" activeCell="K33" sqref="K33:L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2339,8 +2339,12 @@
       <c r="J33" s="3">
         <v>42496</v>
       </c>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
+      <c r="K33" s="3">
+        <v>42496</v>
+      </c>
+      <c r="L33" s="3">
+        <v>42496</v>
+      </c>
       <c r="M33" s="2" t="s">
         <v>116</v>
       </c>

--- a/BI需求列表.xlsx
+++ b/BI需求列表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="需求列表" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="119">
   <si>
     <t>id</t>
   </si>
@@ -424,10 +424,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -438,24 +434,33 @@
   <si>
     <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">bi.bi_drpt_home_click </t>
+  </si>
+  <si>
+    <t>首页模块居家百货数码电器点击</t>
+  </si>
+  <si>
+    <t>http://192.168.10.54/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -463,7 +468,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -471,10 +476,17 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -533,7 +545,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -594,12 +606,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -612,14 +695,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -654,7 +737,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -686,9 +769,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -720,6 +804,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -895,31 +980,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K33" sqref="K33:L33"/>
+      <selection pane="bottomLeft" activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" style="10" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="42.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="42.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -1022,7 +1107,7 @@
       </c>
       <c r="R2" s="13"/>
     </row>
-    <row r="3" spans="1:18" ht="28.8" hidden="1">
+    <row r="3" spans="1:18" ht="30" hidden="1">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -1066,7 +1151,7 @@
       </c>
       <c r="R3" s="13"/>
     </row>
-    <row r="4" spans="1:18" ht="43.2" hidden="1">
+    <row r="4" spans="1:18" ht="45" hidden="1">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -1242,7 +1327,7 @@
       </c>
       <c r="R7" s="13"/>
     </row>
-    <row r="8" spans="1:18" ht="28.8" hidden="1">
+    <row r="8" spans="1:18" ht="30" hidden="1">
       <c r="A8" s="12">
         <v>8</v>
       </c>
@@ -1286,7 +1371,7 @@
       </c>
       <c r="R8" s="13"/>
     </row>
-    <row r="9" spans="1:18" ht="43.2" hidden="1">
+    <row r="9" spans="1:18" ht="45" hidden="1">
       <c r="A9" s="12">
         <v>9</v>
       </c>
@@ -1330,7 +1415,7 @@
       </c>
       <c r="R9" s="13"/>
     </row>
-    <row r="10" spans="1:18" ht="28.8" hidden="1">
+    <row r="10" spans="1:18" ht="30" hidden="1">
       <c r="A10" s="12">
         <v>10</v>
       </c>
@@ -1424,7 +1509,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="28.8" hidden="1">
+    <row r="12" spans="1:18" ht="30" hidden="1">
       <c r="A12" s="16">
         <v>14</v>
       </c>
@@ -1646,7 +1731,7 @@
       </c>
       <c r="R16" s="13"/>
     </row>
-    <row r="17" spans="1:18" ht="28.8" hidden="1">
+    <row r="17" spans="1:18" ht="30" hidden="1">
       <c r="A17" s="12">
         <v>19</v>
       </c>
@@ -1866,7 +1951,7 @@
       </c>
       <c r="R21" s="13"/>
     </row>
-    <row r="22" spans="1:18" ht="28.8" hidden="1">
+    <row r="22" spans="1:18" ht="30" hidden="1">
       <c r="A22" s="12">
         <v>24</v>
       </c>
@@ -1954,7 +2039,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="28.8" hidden="1">
+    <row r="24" spans="1:18" ht="30" hidden="1">
       <c r="A24" s="16">
         <v>26</v>
       </c>
@@ -1992,9 +2077,9 @@
       </c>
       <c r="N24" s="16"/>
       <c r="O24" s="16"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12" t="s">
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2108,9 +2193,9 @@
       </c>
       <c r="N27" s="16"/>
       <c r="O27" s="16"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="2">
@@ -2182,11 +2267,17 @@
       <c r="I29" s="3">
         <v>42485</v>
       </c>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" t="s">
-        <v>115</v>
+      <c r="J29" s="3">
+        <v>42494</v>
+      </c>
+      <c r="K29" s="3">
+        <v>42485</v>
+      </c>
+      <c r="L29" s="3">
+        <v>42494</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -2308,7 +2399,7 @@
       <c r="Q32" s="12"/>
       <c r="R32" s="12"/>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" hidden="1">
       <c r="A33" s="6">
         <v>35</v>
       </c>
@@ -2346,17 +2437,17 @@
         <v>42496</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="12"/>
       <c r="Q33" s="12"/>
       <c r="R33" s="12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" hidden="1">
       <c r="A34" s="6">
         <v>36</v>
       </c>
@@ -2387,20 +2478,30 @@
       <c r="J34" s="3">
         <v>42499</v>
       </c>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
+      <c r="K34" s="3">
+        <v>42499</v>
+      </c>
+      <c r="L34" s="3">
+        <v>42499</v>
+      </c>
       <c r="M34" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="12"/>
+        <v>66</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="O34" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="P34" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="Q34" s="12"/>
       <c r="R34" s="12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" hidden="1">
       <c r="A35" s="6">
         <v>37</v>
       </c>
@@ -2431,17 +2532,27 @@
       <c r="J35" s="3">
         <v>42500</v>
       </c>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
+      <c r="K35" s="3">
+        <v>42500</v>
+      </c>
+      <c r="L35" s="3">
+        <v>42499</v>
+      </c>
       <c r="M35" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="12"/>
+        <v>66</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="O35" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="P35" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="Q35" s="12"/>
       <c r="R35" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2460,16 +2571,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2574,7 +2685,7 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:1">

--- a/BI需求列表.xlsx
+++ b/BI需求列表.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="121">
   <si>
     <t>id</t>
   </si>
@@ -443,6 +443,12 @@
   </si>
   <si>
     <t>http://192.168.10.54/</t>
+  </si>
+  <si>
+    <t>华璐</t>
+  </si>
+  <si>
+    <t>9块9高佣选品数据</t>
   </si>
 </sst>
 </file>
@@ -545,7 +551,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -607,6 +613,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -982,11 +1000,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:R35"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M43" sqref="M43"/>
+      <selection pane="bottomLeft" activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2277,7 +2295,7 @@
         <v>42494</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -2400,50 +2418,50 @@
       <c r="R32" s="12"/>
     </row>
     <row r="33" spans="1:18" hidden="1">
-      <c r="A33" s="6">
+      <c r="A33" s="21">
         <v>35</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="22">
         <v>42489</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="21">
         <v>0.5</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="22">
         <v>42496</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="22">
         <v>42496</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33" s="22">
         <v>42496</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="22">
         <v>42496</v>
       </c>
-      <c r="L33" s="3">
+      <c r="L33" s="22">
         <v>42496</v>
       </c>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="12" t="s">
+      <c r="N33" s="23"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2554,6 +2572,40 @@
       <c r="R35" s="12" t="s">
         <v>113</v>
       </c>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36" s="5">
+        <v>35</v>
+      </c>
+      <c r="B36" s="24">
+        <v>42500</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:Q35">

--- a/BI需求列表.xlsx
+++ b/BI需求列表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="需求列表" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="121">
   <si>
     <t>id</t>
   </si>
@@ -443,24 +443,32 @@
   </si>
   <si>
     <t>http://192.168.10.54/</t>
+  </si>
+  <si>
+    <t>bi_drpt_nact_item_trade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -468,7 +476,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -476,7 +484,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -611,78 +619,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -695,14 +635,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -737,7 +677,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -769,10 +709,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -804,7 +743,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -980,31 +918,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M43" sqref="M43"/>
+      <selection pane="bottomLeft" activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" customWidth="1"/>
-    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" style="10" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="42.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -1107,7 +1045,7 @@
       </c>
       <c r="R2" s="13"/>
     </row>
-    <row r="3" spans="1:18" ht="30" hidden="1">
+    <row r="3" spans="1:18" ht="28.8" hidden="1">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -1151,7 +1089,7 @@
       </c>
       <c r="R3" s="13"/>
     </row>
-    <row r="4" spans="1:18" ht="45" hidden="1">
+    <row r="4" spans="1:18" ht="43.2" hidden="1">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -1327,7 +1265,7 @@
       </c>
       <c r="R7" s="13"/>
     </row>
-    <row r="8" spans="1:18" ht="30" hidden="1">
+    <row r="8" spans="1:18" ht="28.8" hidden="1">
       <c r="A8" s="12">
         <v>8</v>
       </c>
@@ -1371,7 +1309,7 @@
       </c>
       <c r="R8" s="13"/>
     </row>
-    <row r="9" spans="1:18" ht="45" hidden="1">
+    <row r="9" spans="1:18" ht="43.2" hidden="1">
       <c r="A9" s="12">
         <v>9</v>
       </c>
@@ -1415,7 +1353,7 @@
       </c>
       <c r="R9" s="13"/>
     </row>
-    <row r="10" spans="1:18" ht="30" hidden="1">
+    <row r="10" spans="1:18" ht="28.8" hidden="1">
       <c r="A10" s="12">
         <v>10</v>
       </c>
@@ -1509,7 +1447,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="30" hidden="1">
+    <row r="12" spans="1:18" ht="28.8" hidden="1">
       <c r="A12" s="16">
         <v>14</v>
       </c>
@@ -1731,7 +1669,7 @@
       </c>
       <c r="R16" s="13"/>
     </row>
-    <row r="17" spans="1:18" ht="30" hidden="1">
+    <row r="17" spans="1:18" ht="28.8" hidden="1">
       <c r="A17" s="12">
         <v>19</v>
       </c>
@@ -1951,7 +1889,7 @@
       </c>
       <c r="R21" s="13"/>
     </row>
-    <row r="22" spans="1:18" ht="30" hidden="1">
+    <row r="22" spans="1:18" ht="28.8" hidden="1">
       <c r="A22" s="12">
         <v>24</v>
       </c>
@@ -1993,7 +1931,7 @@
       <c r="Q22" s="12"/>
       <c r="R22" s="13"/>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" hidden="1">
       <c r="A23" s="2">
         <v>25</v>
       </c>
@@ -2024,12 +1962,18 @@
       <c r="J23" s="3">
         <v>42500</v>
       </c>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
+      <c r="K23" s="3">
+        <v>42496</v>
+      </c>
+      <c r="L23" s="3">
+        <v>42500</v>
+      </c>
       <c r="M23" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" s="12"/>
       <c r="Q23" s="12" t="s">
@@ -2039,7 +1983,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="30" hidden="1">
+    <row r="24" spans="1:18" ht="28.8" hidden="1">
       <c r="A24" s="16">
         <v>26</v>
       </c>
@@ -2571,16 +2515,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">

--- a/BI需求列表.xlsx
+++ b/BI需求列表.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="需求列表" sheetId="1" r:id="rId1"/>
     <sheet name="状态" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">需求列表!$A$1:$Q$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">需求列表!$A$1:$Q$38</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="127">
   <si>
     <t>id</t>
   </si>
@@ -451,24 +451,42 @@
   <si>
     <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成，待验证</t>
+  </si>
+  <si>
+    <t>华璐</t>
+  </si>
+  <si>
+    <t>9块9高佣选品数据需求</t>
+  </si>
+  <si>
+    <t>全站类目成交统计</t>
+  </si>
+  <si>
+    <t>陈斌</t>
+  </si>
+  <si>
+    <t>频道页预估实时成交数据报表</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -476,7 +494,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -484,7 +502,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -511,7 +529,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -534,26 +552,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -594,35 +599,94 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -635,14 +699,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -677,7 +741,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -709,9 +773,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -743,6 +808,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -918,41 +984,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:R35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N36" sqref="N36"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" style="10" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="26" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="42.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="42.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>32</v>
       </c>
       <c r="D1" s="11" t="s">
@@ -982,7 +1047,7 @@
       <c r="L1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="14" t="s">
         <v>39</v>
       </c>
       <c r="N1" s="11" t="s">
@@ -1001,51 +1066,51 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:18" hidden="1">
-      <c r="A2" s="16">
+    <row r="2" spans="1:18">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="9">
         <v>42430</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="17">
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="9">
         <v>42451</v>
       </c>
-      <c r="J2" s="17">
+      <c r="J2" s="9">
         <v>42451</v>
       </c>
-      <c r="K2" s="17">
+      <c r="K2" s="9">
         <v>42451</v>
       </c>
-      <c r="L2" s="17">
+      <c r="L2" s="9">
         <v>42451</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16" t="s">
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="13"/>
-    </row>
-    <row r="3" spans="1:18" ht="28.8" hidden="1">
+      <c r="R2" s="12"/>
+    </row>
+    <row r="3" spans="1:18" ht="30">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -1058,7 +1123,7 @@
       <c r="D3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="15" t="s">
         <v>43</v>
       </c>
       <c r="F3" s="12" t="s">
@@ -1087,9 +1152,9 @@
       <c r="Q3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="13"/>
-    </row>
-    <row r="4" spans="1:18" ht="43.2" hidden="1">
+      <c r="R3" s="12"/>
+    </row>
+    <row r="4" spans="1:18" ht="45">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -1102,7 +1167,7 @@
       <c r="D4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="15" t="s">
         <v>58</v>
       </c>
       <c r="F4" s="12" t="s">
@@ -1131,9 +1196,9 @@
       <c r="Q4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="R4" s="13"/>
-    </row>
-    <row r="5" spans="1:18" hidden="1">
+      <c r="R4" s="12"/>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -1175,9 +1240,9 @@
       <c r="Q5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="R5" s="13"/>
-    </row>
-    <row r="6" spans="1:18" hidden="1">
+      <c r="R5" s="12"/>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -1219,9 +1284,9 @@
       <c r="Q6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="R6" s="13"/>
-    </row>
-    <row r="7" spans="1:18" hidden="1">
+      <c r="R6" s="12"/>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="12">
         <v>7</v>
       </c>
@@ -1263,9 +1328,9 @@
       <c r="Q7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="R7" s="13"/>
-    </row>
-    <row r="8" spans="1:18" ht="28.8" hidden="1">
+      <c r="R7" s="12"/>
+    </row>
+    <row r="8" spans="1:18" ht="30">
       <c r="A8" s="12">
         <v>8</v>
       </c>
@@ -1278,7 +1343,7 @@
       <c r="D8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="15" t="s">
         <v>59</v>
       </c>
       <c r="F8" s="12" t="s">
@@ -1307,9 +1372,9 @@
       <c r="Q8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="R8" s="13"/>
-    </row>
-    <row r="9" spans="1:18" ht="43.2" hidden="1">
+      <c r="R8" s="12"/>
+    </row>
+    <row r="9" spans="1:18" ht="45">
       <c r="A9" s="12">
         <v>9</v>
       </c>
@@ -1322,7 +1387,7 @@
       <c r="D9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="15" t="s">
         <v>60</v>
       </c>
       <c r="F9" s="12" t="s">
@@ -1351,9 +1416,9 @@
       <c r="Q9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="R9" s="13"/>
-    </row>
-    <row r="10" spans="1:18" ht="28.8" hidden="1">
+      <c r="R9" s="12"/>
+    </row>
+    <row r="10" spans="1:18" ht="30">
       <c r="A10" s="12">
         <v>10</v>
       </c>
@@ -1366,7 +1431,7 @@
       <c r="D10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="15" t="s">
         <v>61</v>
       </c>
       <c r="F10" s="12" t="s">
@@ -1395,9 +1460,9 @@
       <c r="Q10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="R10" s="13"/>
-    </row>
-    <row r="11" spans="1:18" hidden="1">
+      <c r="R10" s="12"/>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="12">
         <v>12</v>
       </c>
@@ -1447,51 +1512,51 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="28.8" hidden="1">
-      <c r="A12" s="16">
+    <row r="12" spans="1:18" ht="30">
+      <c r="A12" s="12">
         <v>14</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="9">
         <v>42458</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="17">
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="9">
         <v>42472</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="9">
         <v>42472</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="9">
         <v>42472</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L12" s="9">
         <v>42472</v>
       </c>
-      <c r="M12" s="16" t="s">
+      <c r="M12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16" t="s">
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="R12" s="13"/>
-    </row>
-    <row r="13" spans="1:18" hidden="1">
+      <c r="R12" s="12"/>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="12">
         <v>15</v>
       </c>
@@ -1533,9 +1598,9 @@
       <c r="Q13" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="R13" s="13"/>
-    </row>
-    <row r="14" spans="1:18" hidden="1">
+      <c r="R13" s="12"/>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="12">
         <v>16</v>
       </c>
@@ -1577,9 +1642,9 @@
       <c r="Q14" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="R14" s="13"/>
-    </row>
-    <row r="15" spans="1:18" hidden="1">
+      <c r="R14" s="12"/>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="12">
         <v>17</v>
       </c>
@@ -1625,51 +1690,51 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:18" hidden="1">
-      <c r="A16" s="16">
+    <row r="16" spans="1:18">
+      <c r="A16" s="12">
         <v>18</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="9">
         <v>42465</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="17">
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="9">
         <v>42472</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="9">
         <v>42472</v>
       </c>
-      <c r="K16" s="17">
+      <c r="K16" s="9">
         <v>42472</v>
       </c>
-      <c r="L16" s="17">
+      <c r="L16" s="9">
         <v>42472</v>
       </c>
-      <c r="M16" s="16" t="s">
+      <c r="M16" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16" t="s">
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="R16" s="13"/>
-    </row>
-    <row r="17" spans="1:18" ht="28.8" hidden="1">
+      <c r="R16" s="12"/>
+    </row>
+    <row r="17" spans="1:18" ht="30">
       <c r="A17" s="12">
         <v>19</v>
       </c>
@@ -1682,7 +1747,7 @@
       <c r="D17" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="15" t="s">
         <v>62</v>
       </c>
       <c r="F17" s="12" t="s">
@@ -1711,9 +1776,9 @@
       <c r="Q17" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="R17" s="13"/>
-    </row>
-    <row r="18" spans="1:18" hidden="1">
+      <c r="R17" s="12"/>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="12">
         <v>20</v>
       </c>
@@ -1755,9 +1820,9 @@
       <c r="Q18" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="R18" s="13"/>
-    </row>
-    <row r="19" spans="1:18" hidden="1">
+      <c r="R18" s="12"/>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="12">
         <v>21</v>
       </c>
@@ -1799,9 +1864,9 @@
       <c r="Q19" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="R19" s="13"/>
-    </row>
-    <row r="20" spans="1:18" hidden="1">
+      <c r="R19" s="12"/>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="12">
         <v>22</v>
       </c>
@@ -1843,9 +1908,9 @@
       <c r="Q20" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="R20" s="13"/>
-    </row>
-    <row r="21" spans="1:18" hidden="1">
+      <c r="R20" s="12"/>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="12">
         <v>23</v>
       </c>
@@ -1887,9 +1952,9 @@
       <c r="Q21" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="R21" s="13"/>
-    </row>
-    <row r="22" spans="1:18" ht="28.8" hidden="1">
+      <c r="R21" s="12"/>
+    </row>
+    <row r="22" spans="1:18" ht="30">
       <c r="A22" s="12">
         <v>24</v>
       </c>
@@ -1902,7 +1967,7 @@
       <c r="D22" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="15" t="s">
         <v>48</v>
       </c>
       <c r="F22" s="12" t="s">
@@ -1929,9 +1994,9 @@
       <c r="O22" s="12"/>
       <c r="P22" s="12"/>
       <c r="Q22" s="12"/>
-      <c r="R22" s="13"/>
-    </row>
-    <row r="23" spans="1:18" hidden="1">
+      <c r="R22" s="12"/>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="2">
         <v>25</v>
       </c>
@@ -1983,51 +2048,51 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="28.8" hidden="1">
-      <c r="A24" s="16">
+    <row r="24" spans="1:18" ht="30">
+      <c r="A24" s="12">
         <v>26</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="9">
         <v>42475</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F24" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="G24" s="16">
+      <c r="G24" s="12">
         <v>4</v>
       </c>
-      <c r="H24" s="17">
+      <c r="H24" s="9">
         <v>42479</v>
       </c>
-      <c r="I24" s="17">
+      <c r="I24" s="9">
         <v>42488</v>
       </c>
-      <c r="J24" s="17">
+      <c r="J24" s="9">
         <v>42494</v>
       </c>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16" t="s">
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16" t="s">
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:18" hidden="1">
+    <row r="25" spans="1:18">
       <c r="A25" s="12">
         <v>27</v>
       </c>
@@ -2095,51 +2160,51 @@
       <c r="Q26" s="12"/>
       <c r="R26" s="12"/>
     </row>
-    <row r="27" spans="1:18" hidden="1">
-      <c r="A27" s="16">
+    <row r="27" spans="1:18">
+      <c r="A27" s="12">
         <v>29</v>
       </c>
-      <c r="B27" s="17">
+      <c r="B27" s="9">
         <v>42475</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="16" t="s">
+      <c r="F27" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="G27" s="16">
+      <c r="G27" s="12">
         <v>1</v>
       </c>
-      <c r="H27" s="17">
+      <c r="H27" s="9">
         <v>42486</v>
       </c>
-      <c r="I27" s="17">
+      <c r="I27" s="9">
         <v>42486</v>
       </c>
-      <c r="J27" s="17">
+      <c r="J27" s="9">
         <v>42486</v>
       </c>
-      <c r="K27" s="17">
+      <c r="K27" s="9">
         <v>42486</v>
       </c>
-      <c r="L27" s="17">
+      <c r="L27" s="9">
         <v>42486</v>
       </c>
-      <c r="M27" s="16" t="s">
+      <c r="M27" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="2">
@@ -2221,7 +2286,7 @@
         <v>42494</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -2252,12 +2317,20 @@
       <c r="H30" s="3">
         <v>42482</v>
       </c>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
+      <c r="I30" s="3">
+        <v>42494</v>
+      </c>
+      <c r="J30" s="3">
+        <v>42501</v>
+      </c>
+      <c r="K30" s="3">
+        <v>42494</v>
+      </c>
+      <c r="L30" s="3">
+        <v>42501</v>
+      </c>
       <c r="M30" s="2" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -2288,12 +2361,20 @@
       <c r="H31" s="3">
         <v>42482</v>
       </c>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
+      <c r="I31" s="3">
+        <v>42501</v>
+      </c>
+      <c r="J31" s="3">
+        <v>42502</v>
+      </c>
+      <c r="K31" s="3">
+        <v>42501</v>
+      </c>
+      <c r="L31" s="3">
+        <v>42502</v>
+      </c>
       <c r="M31" s="2" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -2343,7 +2424,7 @@
       <c r="Q32" s="12"/>
       <c r="R32" s="12"/>
     </row>
-    <row r="33" spans="1:18" hidden="1">
+    <row r="33" spans="1:18">
       <c r="A33" s="6">
         <v>35</v>
       </c>
@@ -2391,7 +2472,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="1:18" hidden="1">
+    <row r="34" spans="1:18">
       <c r="A34" s="6">
         <v>36</v>
       </c>
@@ -2434,7 +2515,7 @@
       <c r="N34" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="O34" s="20" t="s">
+      <c r="O34" s="16" t="s">
         <v>117</v>
       </c>
       <c r="P34" s="12" t="s">
@@ -2445,7 +2526,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:18" hidden="1">
+    <row r="35" spans="1:18">
       <c r="A35" s="6">
         <v>37</v>
       </c>
@@ -2488,7 +2569,7 @@
       <c r="N35" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="O35" s="20" t="s">
+      <c r="O35" s="16" t="s">
         <v>117</v>
       </c>
       <c r="P35" s="12" t="s">
@@ -2499,15 +2580,110 @@
         <v>113</v>
       </c>
     </row>
+    <row r="36" spans="1:18">
+      <c r="A36" s="6">
+        <v>35</v>
+      </c>
+      <c r="B36" s="17">
+        <v>42500</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" s="6">
+        <v>36</v>
+      </c>
+      <c r="B37" s="17">
+        <v>42501</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38" s="6">
+        <v>37</v>
+      </c>
+      <c r="B38" s="17">
+        <v>42503</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:Q35">
-    <filterColumn colId="12">
-      <filters>
-        <filter val="开发完成，待验收"/>
-        <filter val="新增"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:Q38"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -2515,16 +2691,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">

--- a/BI需求列表.xlsx
+++ b/BI需求列表.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="128">
   <si>
     <t>id</t>
   </si>
@@ -469,6 +469,9 @@
   </si>
   <si>
     <t>频道页预估实时成交数据报表</t>
+  </si>
+  <si>
+    <t>bi.bi_drpt_user_awaken</t>
   </si>
 </sst>
 </file>
@@ -558,7 +561,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -608,9 +611,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -985,11 +985,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R38"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N44" sqref="N44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1066,7 +1067,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" hidden="1">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -1110,7 +1111,7 @@
       </c>
       <c r="R2" s="12"/>
     </row>
-    <row r="3" spans="1:18" ht="30">
+    <row r="3" spans="1:18" ht="30" hidden="1">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -1154,7 +1155,7 @@
       </c>
       <c r="R3" s="12"/>
     </row>
-    <row r="4" spans="1:18" ht="45">
+    <row r="4" spans="1:18" ht="45" hidden="1">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -1198,7 +1199,7 @@
       </c>
       <c r="R4" s="12"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" hidden="1">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -1242,7 +1243,7 @@
       </c>
       <c r="R5" s="12"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" hidden="1">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -1286,7 +1287,7 @@
       </c>
       <c r="R6" s="12"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" hidden="1">
       <c r="A7" s="12">
         <v>7</v>
       </c>
@@ -1330,7 +1331,7 @@
       </c>
       <c r="R7" s="12"/>
     </row>
-    <row r="8" spans="1:18" ht="30">
+    <row r="8" spans="1:18" ht="30" hidden="1">
       <c r="A8" s="12">
         <v>8</v>
       </c>
@@ -1374,7 +1375,7 @@
       </c>
       <c r="R8" s="12"/>
     </row>
-    <row r="9" spans="1:18" ht="45">
+    <row r="9" spans="1:18" ht="45" hidden="1">
       <c r="A9" s="12">
         <v>9</v>
       </c>
@@ -1418,7 +1419,7 @@
       </c>
       <c r="R9" s="12"/>
     </row>
-    <row r="10" spans="1:18" ht="30">
+    <row r="10" spans="1:18" ht="30" hidden="1">
       <c r="A10" s="12">
         <v>10</v>
       </c>
@@ -1462,7 +1463,7 @@
       </c>
       <c r="R10" s="12"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" hidden="1">
       <c r="A11" s="12">
         <v>12</v>
       </c>
@@ -1512,7 +1513,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="30">
+    <row r="12" spans="1:18" ht="30" hidden="1">
       <c r="A12" s="12">
         <v>14</v>
       </c>
@@ -1556,7 +1557,7 @@
       </c>
       <c r="R12" s="12"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" hidden="1">
       <c r="A13" s="12">
         <v>15</v>
       </c>
@@ -1600,7 +1601,7 @@
       </c>
       <c r="R13" s="12"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" hidden="1">
       <c r="A14" s="12">
         <v>16</v>
       </c>
@@ -1644,7 +1645,7 @@
       </c>
       <c r="R14" s="12"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" hidden="1">
       <c r="A15" s="12">
         <v>17</v>
       </c>
@@ -1690,7 +1691,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" hidden="1">
       <c r="A16" s="12">
         <v>18</v>
       </c>
@@ -1734,7 +1735,7 @@
       </c>
       <c r="R16" s="12"/>
     </row>
-    <row r="17" spans="1:18" ht="30">
+    <row r="17" spans="1:18" ht="30" hidden="1">
       <c r="A17" s="12">
         <v>19</v>
       </c>
@@ -1778,7 +1779,7 @@
       </c>
       <c r="R17" s="12"/>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" hidden="1">
       <c r="A18" s="12">
         <v>20</v>
       </c>
@@ -1822,7 +1823,7 @@
       </c>
       <c r="R18" s="12"/>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" hidden="1">
       <c r="A19" s="12">
         <v>21</v>
       </c>
@@ -1866,7 +1867,7 @@
       </c>
       <c r="R19" s="12"/>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" hidden="1">
       <c r="A20" s="12">
         <v>22</v>
       </c>
@@ -1910,7 +1911,7 @@
       </c>
       <c r="R20" s="12"/>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" hidden="1">
       <c r="A21" s="12">
         <v>23</v>
       </c>
@@ -1954,7 +1955,7 @@
       </c>
       <c r="R21" s="12"/>
     </row>
-    <row r="22" spans="1:18" ht="30">
+    <row r="22" spans="1:18" ht="30" hidden="1">
       <c r="A22" s="12">
         <v>24</v>
       </c>
@@ -1996,7 +1997,7 @@
       <c r="Q22" s="12"/>
       <c r="R22" s="12"/>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" hidden="1">
       <c r="A23" s="2">
         <v>25</v>
       </c>
@@ -2048,7 +2049,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="30">
+    <row r="24" spans="1:18" ht="30" hidden="1">
       <c r="A24" s="12">
         <v>26</v>
       </c>
@@ -2092,7 +2093,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" hidden="1">
       <c r="A25" s="12">
         <v>27</v>
       </c>
@@ -2160,7 +2161,7 @@
       <c r="Q26" s="12"/>
       <c r="R26" s="12"/>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" hidden="1">
       <c r="A27" s="12">
         <v>29</v>
       </c>
@@ -2248,7 +2249,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" hidden="1">
       <c r="A29" s="2">
         <v>31</v>
       </c>
@@ -2332,7 +2333,9 @@
       <c r="M30" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="N30" s="2"/>
+      <c r="N30" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" s="12"/>
       <c r="Q30" s="12"/>
@@ -2376,7 +2379,9 @@
       <c r="M31" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="N31" s="2"/>
+      <c r="N31" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" s="12"/>
       <c r="Q31" s="12"/>
@@ -2424,7 +2429,7 @@
       <c r="Q32" s="12"/>
       <c r="R32" s="12"/>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" hidden="1">
       <c r="A33" s="6">
         <v>35</v>
       </c>
@@ -2472,7 +2477,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" hidden="1">
       <c r="A34" s="6">
         <v>36</v>
       </c>
@@ -2526,7 +2531,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" hidden="1">
       <c r="A35" s="6">
         <v>37</v>
       </c>
@@ -2584,7 +2589,7 @@
       <c r="A36" s="6">
         <v>35</v>
       </c>
-      <c r="B36" s="17">
+      <c r="B36" s="3">
         <v>42500</v>
       </c>
       <c r="C36" s="6" t="s">
@@ -2597,7 +2602,7 @@
         <v>123</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="3"/>
@@ -2618,7 +2623,7 @@
       <c r="A37" s="6">
         <v>36</v>
       </c>
-      <c r="B37" s="17">
+      <c r="B37" s="3">
         <v>42501</v>
       </c>
       <c r="C37" s="6" t="s">
@@ -2635,7 +2640,9 @@
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="3"/>
-      <c r="I37" s="5"/>
+      <c r="I37" s="3">
+        <v>42507</v>
+      </c>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
@@ -2652,7 +2659,7 @@
       <c r="A38" s="6">
         <v>37</v>
       </c>
-      <c r="B38" s="17">
+      <c r="B38" s="3">
         <v>42503</v>
       </c>
       <c r="C38" s="6" t="s">
@@ -2667,10 +2674,18 @@
       <c r="F38" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="G38" s="2"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
+      <c r="G38" s="2">
+        <v>1</v>
+      </c>
+      <c r="H38" s="3">
+        <v>42503</v>
+      </c>
+      <c r="I38" s="3">
+        <v>42506</v>
+      </c>
+      <c r="J38" s="3">
+        <v>42507</v>
+      </c>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
       <c r="M38" s="2" t="s">
@@ -2682,8 +2697,21 @@
       <c r="Q38" s="5"/>
       <c r="R38" s="5"/>
     </row>
+    <row r="39" spans="1:18">
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="B40" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:Q38"/>
+  <autoFilter ref="A1:Q38">
+    <filterColumn colId="12">
+      <filters>
+        <filter val="完成，待验证"/>
+        <filter val="新增"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/BI需求列表.xlsx
+++ b/BI需求列表.xlsx
@@ -987,9 +987,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N44" sqref="N44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26:A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/BI需求列表.xlsx
+++ b/BI需求列表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="需求列表" sheetId="1" r:id="rId1"/>
@@ -474,19 +474,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -494,7 +494,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -502,7 +502,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -615,78 +615,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -699,14 +631,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -741,7 +673,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -773,10 +705,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -808,7 +739,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -984,30 +914,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26:A38"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" style="10" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="26" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="42.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -1110,7 +1040,7 @@
       </c>
       <c r="R2" s="12"/>
     </row>
-    <row r="3" spans="1:18" ht="30">
+    <row r="3" spans="1:18" ht="28.8">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -1154,7 +1084,7 @@
       </c>
       <c r="R3" s="12"/>
     </row>
-    <row r="4" spans="1:18" ht="45">
+    <row r="4" spans="1:18" ht="43.2">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -1330,7 +1260,7 @@
       </c>
       <c r="R7" s="12"/>
     </row>
-    <row r="8" spans="1:18" ht="30">
+    <row r="8" spans="1:18" ht="28.8">
       <c r="A8" s="12">
         <v>8</v>
       </c>
@@ -1374,7 +1304,7 @@
       </c>
       <c r="R8" s="12"/>
     </row>
-    <row r="9" spans="1:18" ht="45">
+    <row r="9" spans="1:18" ht="43.2">
       <c r="A9" s="12">
         <v>9</v>
       </c>
@@ -1418,7 +1348,7 @@
       </c>
       <c r="R9" s="12"/>
     </row>
-    <row r="10" spans="1:18" ht="30">
+    <row r="10" spans="1:18" ht="28.8">
       <c r="A10" s="12">
         <v>10</v>
       </c>
@@ -1512,7 +1442,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="30">
+    <row r="12" spans="1:18" ht="28.8">
       <c r="A12" s="12">
         <v>14</v>
       </c>
@@ -1734,7 +1664,7 @@
       </c>
       <c r="R16" s="12"/>
     </row>
-    <row r="17" spans="1:18" ht="30">
+    <row r="17" spans="1:18" ht="28.8">
       <c r="A17" s="12">
         <v>19</v>
       </c>
@@ -1954,7 +1884,7 @@
       </c>
       <c r="R21" s="12"/>
     </row>
-    <row r="22" spans="1:18" ht="30">
+    <row r="22" spans="1:18" ht="28.8">
       <c r="A22" s="12">
         <v>24</v>
       </c>
@@ -2048,7 +1978,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="30">
+    <row r="24" spans="1:18" ht="28.8">
       <c r="A24" s="12">
         <v>26</v>
       </c>
@@ -2683,7 +2613,9 @@
       <c r="R38" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q38"/>
+  <autoFilter ref="A1:Q38">
+    <filterColumn colId="12"/>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -2691,16 +2623,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">

--- a/BI需求列表.xlsx
+++ b/BI需求列表.xlsx
@@ -11,14 +11,14 @@
     <sheet name="状态" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">需求列表!$A$1:$Q$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">需求列表!$A$1:$Q$39</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="132">
   <si>
     <t>id</t>
   </si>
@@ -472,13 +472,25 @@
   </si>
   <si>
     <t>bi.bi_drpt_user_awaken</t>
+  </si>
+  <si>
+    <t>bi.bi_drpt_channel_estimate_order_amount</t>
+  </si>
+  <si>
+    <t>精细化运营</t>
+  </si>
+  <si>
+    <t>bi.bi_drpt_home_click_addtion</t>
+  </si>
+  <si>
+    <t>精细化运营报表</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -516,6 +528,11 @@
       <color rgb="FF666666"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Lucida Grande"/>
     </font>
   </fonts>
   <fills count="3">
@@ -561,7 +578,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -611,6 +628,21 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -986,11 +1018,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:R40"/>
+  <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1005,7 +1037,7 @@
     <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="41.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="42.42578125" bestFit="1" customWidth="1"/>
@@ -2585,7 +2617,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" hidden="1">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -2611,7 +2643,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="2" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
@@ -2655,7 +2687,7 @@
       <c r="Q37" s="5"/>
       <c r="R37" s="5"/>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" hidden="1">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -2686,25 +2718,87 @@
       <c r="J38" s="3">
         <v>42507</v>
       </c>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
+      <c r="K38" s="20">
+        <v>42507</v>
+      </c>
+      <c r="L38" s="20">
+        <v>42507</v>
+      </c>
       <c r="M38" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="N38" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>128</v>
+      </c>
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
       <c r="R38" s="5"/>
     </row>
-    <row r="39" spans="1:18">
-      <c r="B39" s="3"/>
+    <row r="39" spans="1:18" hidden="1">
+      <c r="A39" s="6">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3">
+        <v>42506</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G39" s="2">
+        <v>3</v>
+      </c>
+      <c r="H39" s="3">
+        <v>42506</v>
+      </c>
+      <c r="I39" s="20">
+        <v>42507</v>
+      </c>
+      <c r="J39" s="20">
+        <v>42509</v>
+      </c>
+      <c r="K39" s="20">
+        <v>42507</v>
+      </c>
+      <c r="L39" s="20">
+        <v>42509</v>
+      </c>
+      <c r="M39" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N39" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="O39" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
     </row>
     <row r="40" spans="1:18">
-      <c r="B40" s="3"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41" s="17"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q38">
+  <autoFilter ref="A1:Q39">
     <filterColumn colId="12">
       <filters>
         <filter val="完成，待验证"/>

--- a/BI需求列表.xlsx
+++ b/BI需求列表.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="133">
   <si>
     <t>id</t>
   </si>
@@ -484,6 +484,9 @@
   </si>
   <si>
     <t>精细化运营报表</t>
+  </si>
+  <si>
+    <t>bi.bi_mrpt_op_category_pay_order_time</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1025,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I46" sqref="I46"/>
+      <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2670,18 +2673,30 @@
       <c r="F37" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="G37" s="2"/>
-      <c r="H37" s="3"/>
+      <c r="G37" s="2">
+        <v>2</v>
+      </c>
+      <c r="H37" s="3">
+        <v>42506</v>
+      </c>
       <c r="I37" s="3">
         <v>42507</v>
       </c>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
+      <c r="J37" s="20">
+        <v>42509</v>
+      </c>
+      <c r="K37" s="20">
+        <v>42514</v>
+      </c>
+      <c r="L37" s="20">
+        <v>42515</v>
+      </c>
       <c r="M37" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="N37" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>

--- a/BI需求列表.xlsx
+++ b/BI需求列表.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="136">
   <si>
     <t>id</t>
   </si>
@@ -487,6 +487,15 @@
   </si>
   <si>
     <t>bi.bi_mrpt_op_category_pay_order_time</t>
+  </si>
+  <si>
+    <t>客服</t>
+  </si>
+  <si>
+    <t>胡清清</t>
+  </si>
+  <si>
+    <t>权益订单报表</t>
   </si>
 </sst>
 </file>
@@ -552,7 +561,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -575,13 +584,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -647,6 +667,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1020,12 +1043,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
+      <selection pane="bottomLeft" activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1102,7 +1124,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:18" hidden="1">
+    <row r="2" spans="1:18">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -1146,7 +1168,7 @@
       </c>
       <c r="R2" s="12"/>
     </row>
-    <row r="3" spans="1:18" ht="30" hidden="1">
+    <row r="3" spans="1:18" ht="30">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -1190,7 +1212,7 @@
       </c>
       <c r="R3" s="12"/>
     </row>
-    <row r="4" spans="1:18" ht="45" hidden="1">
+    <row r="4" spans="1:18" ht="45">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -1234,7 +1256,7 @@
       </c>
       <c r="R4" s="12"/>
     </row>
-    <row r="5" spans="1:18" hidden="1">
+    <row r="5" spans="1:18">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -1278,7 +1300,7 @@
       </c>
       <c r="R5" s="12"/>
     </row>
-    <row r="6" spans="1:18" hidden="1">
+    <row r="6" spans="1:18">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -1322,7 +1344,7 @@
       </c>
       <c r="R6" s="12"/>
     </row>
-    <row r="7" spans="1:18" hidden="1">
+    <row r="7" spans="1:18">
       <c r="A7" s="12">
         <v>7</v>
       </c>
@@ -1366,7 +1388,7 @@
       </c>
       <c r="R7" s="12"/>
     </row>
-    <row r="8" spans="1:18" ht="30" hidden="1">
+    <row r="8" spans="1:18" ht="30">
       <c r="A8" s="12">
         <v>8</v>
       </c>
@@ -1410,7 +1432,7 @@
       </c>
       <c r="R8" s="12"/>
     </row>
-    <row r="9" spans="1:18" ht="45" hidden="1">
+    <row r="9" spans="1:18" ht="45">
       <c r="A9" s="12">
         <v>9</v>
       </c>
@@ -1454,7 +1476,7 @@
       </c>
       <c r="R9" s="12"/>
     </row>
-    <row r="10" spans="1:18" ht="30" hidden="1">
+    <row r="10" spans="1:18" ht="30">
       <c r="A10" s="12">
         <v>10</v>
       </c>
@@ -1498,7 +1520,7 @@
       </c>
       <c r="R10" s="12"/>
     </row>
-    <row r="11" spans="1:18" hidden="1">
+    <row r="11" spans="1:18">
       <c r="A11" s="12">
         <v>12</v>
       </c>
@@ -1548,7 +1570,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="30" hidden="1">
+    <row r="12" spans="1:18" ht="30">
       <c r="A12" s="12">
         <v>14</v>
       </c>
@@ -1592,7 +1614,7 @@
       </c>
       <c r="R12" s="12"/>
     </row>
-    <row r="13" spans="1:18" hidden="1">
+    <row r="13" spans="1:18">
       <c r="A13" s="12">
         <v>15</v>
       </c>
@@ -1636,7 +1658,7 @@
       </c>
       <c r="R13" s="12"/>
     </row>
-    <row r="14" spans="1:18" hidden="1">
+    <row r="14" spans="1:18">
       <c r="A14" s="12">
         <v>16</v>
       </c>
@@ -1680,7 +1702,7 @@
       </c>
       <c r="R14" s="12"/>
     </row>
-    <row r="15" spans="1:18" hidden="1">
+    <row r="15" spans="1:18">
       <c r="A15" s="12">
         <v>17</v>
       </c>
@@ -1726,7 +1748,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:18" hidden="1">
+    <row r="16" spans="1:18">
       <c r="A16" s="12">
         <v>18</v>
       </c>
@@ -1770,7 +1792,7 @@
       </c>
       <c r="R16" s="12"/>
     </row>
-    <row r="17" spans="1:18" ht="30" hidden="1">
+    <row r="17" spans="1:18" ht="30">
       <c r="A17" s="12">
         <v>19</v>
       </c>
@@ -1814,7 +1836,7 @@
       </c>
       <c r="R17" s="12"/>
     </row>
-    <row r="18" spans="1:18" hidden="1">
+    <row r="18" spans="1:18">
       <c r="A18" s="12">
         <v>20</v>
       </c>
@@ -1858,7 +1880,7 @@
       </c>
       <c r="R18" s="12"/>
     </row>
-    <row r="19" spans="1:18" hidden="1">
+    <row r="19" spans="1:18">
       <c r="A19" s="12">
         <v>21</v>
       </c>
@@ -1902,7 +1924,7 @@
       </c>
       <c r="R19" s="12"/>
     </row>
-    <row r="20" spans="1:18" hidden="1">
+    <row r="20" spans="1:18">
       <c r="A20" s="12">
         <v>22</v>
       </c>
@@ -1946,7 +1968,7 @@
       </c>
       <c r="R20" s="12"/>
     </row>
-    <row r="21" spans="1:18" hidden="1">
+    <row r="21" spans="1:18">
       <c r="A21" s="12">
         <v>23</v>
       </c>
@@ -1990,7 +2012,7 @@
       </c>
       <c r="R21" s="12"/>
     </row>
-    <row r="22" spans="1:18" ht="30" hidden="1">
+    <row r="22" spans="1:18" ht="30">
       <c r="A22" s="12">
         <v>24</v>
       </c>
@@ -2032,7 +2054,7 @@
       <c r="Q22" s="12"/>
       <c r="R22" s="12"/>
     </row>
-    <row r="23" spans="1:18" hidden="1">
+    <row r="23" spans="1:18">
       <c r="A23" s="2">
         <v>25</v>
       </c>
@@ -2084,7 +2106,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="30" hidden="1">
+    <row r="24" spans="1:18" ht="30">
       <c r="A24" s="12">
         <v>26</v>
       </c>
@@ -2128,7 +2150,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:18" hidden="1">
+    <row r="25" spans="1:18">
       <c r="A25" s="12">
         <v>27</v>
       </c>
@@ -2196,7 +2218,7 @@
       <c r="Q26" s="12"/>
       <c r="R26" s="12"/>
     </row>
-    <row r="27" spans="1:18" hidden="1">
+    <row r="27" spans="1:18">
       <c r="A27" s="12">
         <v>29</v>
       </c>
@@ -2284,7 +2306,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:18" hidden="1">
+    <row r="29" spans="1:18">
       <c r="A29" s="2">
         <v>31</v>
       </c>
@@ -2464,7 +2486,7 @@
       <c r="Q32" s="12"/>
       <c r="R32" s="12"/>
     </row>
-    <row r="33" spans="1:18" hidden="1">
+    <row r="33" spans="1:18">
       <c r="A33" s="6">
         <v>35</v>
       </c>
@@ -2512,7 +2534,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="1:18" hidden="1">
+    <row r="34" spans="1:18">
       <c r="A34" s="6">
         <v>36</v>
       </c>
@@ -2566,7 +2588,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:18" hidden="1">
+    <row r="35" spans="1:18">
       <c r="A35" s="6">
         <v>37</v>
       </c>
@@ -2620,7 +2642,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:18" hidden="1">
+    <row r="36" spans="1:18">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -2702,7 +2724,7 @@
       <c r="Q37" s="5"/>
       <c r="R37" s="5"/>
     </row>
-    <row r="38" spans="1:18" hidden="1">
+    <row r="38" spans="1:18">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -2750,7 +2772,7 @@
       <c r="Q38" s="5"/>
       <c r="R38" s="5"/>
     </row>
-    <row r="39" spans="1:18" hidden="1">
+    <row r="39" spans="1:18">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -2801,10 +2823,39 @@
       <c r="R39" s="5"/>
     </row>
     <row r="40" spans="1:18">
-      <c r="A40" s="17"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
+      <c r="A40" s="22">
+        <v>39</v>
+      </c>
+      <c r="B40" s="18">
+        <v>42517</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="F40" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="G40" s="13">
+        <v>1</v>
+      </c>
+      <c r="H40" s="10">
+        <v>42517</v>
+      </c>
+      <c r="I40" s="1">
+        <v>42520</v>
+      </c>
+      <c r="J40" s="1">
+        <v>42520</v>
+      </c>
+      <c r="K40" s="1">
+        <v>42520</v>
+      </c>
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="17"/>
@@ -2813,14 +2864,7 @@
       <c r="D41" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q39">
-    <filterColumn colId="12">
-      <filters>
-        <filter val="完成，待验证"/>
-        <filter val="新增"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:Q39"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/BI需求列表.xlsx
+++ b/BI需求列表.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="143">
   <si>
     <t>id</t>
   </si>
@@ -496,13 +496,34 @@
   </si>
   <si>
     <t>权益订单报表</t>
+  </si>
+  <si>
+    <t>普返预估实时成交数据</t>
+  </si>
+  <si>
+    <t>陈剑霞</t>
+  </si>
+  <si>
+    <t>IOS新用户设置提醒优化</t>
+  </si>
+  <si>
+    <t>手机号用户日报表修改</t>
+  </si>
+  <si>
+    <t>跟单报表更新频率修改</t>
+  </si>
+  <si>
+    <t>搜索报表</t>
+  </si>
+  <si>
+    <t>短信验证码报表</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -546,6 +567,12 @@
       <color rgb="FF333333"/>
       <name val="Lucida Grande"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -561,7 +588,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -584,24 +611,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -653,23 +669,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1043,11 +1050,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R41"/>
+  <dimension ref="A1:R46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N40" sqref="N40"/>
+      <selection pane="bottomLeft" activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1128,7 +1135,7 @@
       <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="17">
         <v>42430</v>
       </c>
       <c r="C2" s="12" t="s">
@@ -1172,7 +1179,7 @@
       <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="17">
         <v>42430</v>
       </c>
       <c r="C3" s="12" t="s">
@@ -1216,7 +1223,7 @@
       <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="17">
         <v>42430</v>
       </c>
       <c r="C4" s="12" t="s">
@@ -1260,7 +1267,7 @@
       <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="17">
         <v>42433</v>
       </c>
       <c r="C5" s="12" t="s">
@@ -1304,7 +1311,7 @@
       <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="17">
         <v>42447</v>
       </c>
       <c r="C6" s="12" t="s">
@@ -1348,7 +1355,7 @@
       <c r="A7" s="12">
         <v>7</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="17">
         <v>42452</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -1392,7 +1399,7 @@
       <c r="A8" s="12">
         <v>8</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="17">
         <v>42430</v>
       </c>
       <c r="C8" s="12" t="s">
@@ -1436,7 +1443,7 @@
       <c r="A9" s="12">
         <v>9</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="17">
         <v>42430</v>
       </c>
       <c r="C9" s="12" t="s">
@@ -1480,7 +1487,7 @@
       <c r="A10" s="12">
         <v>10</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="17">
         <v>42430</v>
       </c>
       <c r="C10" s="12" t="s">
@@ -1524,7 +1531,7 @@
       <c r="A11" s="12">
         <v>12</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="17">
         <v>42445</v>
       </c>
       <c r="C11" s="12" t="s">
@@ -1574,7 +1581,7 @@
       <c r="A12" s="12">
         <v>14</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="17">
         <v>42458</v>
       </c>
       <c r="C12" s="12" t="s">
@@ -1618,7 +1625,7 @@
       <c r="A13" s="12">
         <v>15</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="17">
         <v>42460</v>
       </c>
       <c r="C13" s="12" t="s">
@@ -1662,7 +1669,7 @@
       <c r="A14" s="12">
         <v>16</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="17">
         <v>42460</v>
       </c>
       <c r="C14" s="12" t="s">
@@ -1706,7 +1713,7 @@
       <c r="A15" s="12">
         <v>17</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="17">
         <v>42465</v>
       </c>
       <c r="C15" s="12" t="s">
@@ -1752,7 +1759,7 @@
       <c r="A16" s="12">
         <v>18</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="17">
         <v>42465</v>
       </c>
       <c r="C16" s="12" t="s">
@@ -1796,7 +1803,7 @@
       <c r="A17" s="12">
         <v>19</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="17">
         <v>42467</v>
       </c>
       <c r="C17" s="12" t="s">
@@ -1840,7 +1847,7 @@
       <c r="A18" s="12">
         <v>20</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="17">
         <v>42466</v>
       </c>
       <c r="C18" s="12" t="s">
@@ -1884,7 +1891,7 @@
       <c r="A19" s="12">
         <v>21</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="17">
         <v>42468</v>
       </c>
       <c r="C19" s="12" t="s">
@@ -1928,7 +1935,7 @@
       <c r="A20" s="12">
         <v>22</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="17">
         <v>42471</v>
       </c>
       <c r="C20" s="12" t="s">
@@ -1972,7 +1979,7 @@
       <c r="A21" s="12">
         <v>23</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="17">
         <v>42472</v>
       </c>
       <c r="C21" s="12" t="s">
@@ -2016,7 +2023,7 @@
       <c r="A22" s="12">
         <v>24</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="17">
         <v>42473</v>
       </c>
       <c r="C22" s="12" t="s">
@@ -2058,7 +2065,7 @@
       <c r="A23" s="2">
         <v>25</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="17">
         <v>42475</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -2110,7 +2117,7 @@
       <c r="A24" s="12">
         <v>26</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="17">
         <v>42475</v>
       </c>
       <c r="C24" s="12" t="s">
@@ -2154,7 +2161,7 @@
       <c r="A25" s="12">
         <v>27</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="17">
         <v>42475</v>
       </c>
       <c r="C25" s="12" t="s">
@@ -2188,7 +2195,7 @@
       <c r="A26" s="2">
         <v>28</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="17">
         <v>42475</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -2222,7 +2229,7 @@
       <c r="A27" s="12">
         <v>29</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="17">
         <v>42475</v>
       </c>
       <c r="C27" s="12" t="s">
@@ -2268,7 +2275,7 @@
       <c r="A28" s="2">
         <v>30</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="17">
         <v>42479</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -2310,7 +2317,7 @@
       <c r="A29" s="2">
         <v>31</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="17">
         <v>42480</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -2356,7 +2363,7 @@
       <c r="A30" s="6">
         <v>32</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="17">
         <v>42480</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -2402,7 +2409,7 @@
       <c r="A31" s="6">
         <v>33</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="17">
         <v>42480</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -2448,7 +2455,7 @@
       <c r="A32" s="2">
         <v>34</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="17">
         <v>42495</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -2478,7 +2485,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -2490,7 +2497,7 @@
       <c r="A33" s="6">
         <v>35</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="17">
         <v>42489</v>
       </c>
       <c r="C33" s="6" t="s">
@@ -2538,7 +2545,7 @@
       <c r="A34" s="6">
         <v>36</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="17">
         <v>42489</v>
       </c>
       <c r="C34" s="6" t="s">
@@ -2592,7 +2599,7 @@
       <c r="A35" s="6">
         <v>37</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="17">
         <v>42489</v>
       </c>
       <c r="C35" s="6" t="s">
@@ -2646,7 +2653,7 @@
       <c r="A36" s="6">
         <v>35</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="17">
         <v>42500</v>
       </c>
       <c r="C36" s="6" t="s">
@@ -2680,7 +2687,7 @@
       <c r="A37" s="6">
         <v>36</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="17">
         <v>42501</v>
       </c>
       <c r="C37" s="6" t="s">
@@ -2704,13 +2711,13 @@
       <c r="I37" s="3">
         <v>42507</v>
       </c>
-      <c r="J37" s="20">
+      <c r="J37" s="17">
         <v>42509</v>
       </c>
-      <c r="K37" s="20">
+      <c r="K37" s="17">
         <v>42514</v>
       </c>
-      <c r="L37" s="20">
+      <c r="L37" s="17">
         <v>42515</v>
       </c>
       <c r="M37" s="2" t="s">
@@ -2728,7 +2735,7 @@
       <c r="A38" s="6">
         <v>37</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="17">
         <v>42503</v>
       </c>
       <c r="C38" s="6" t="s">
@@ -2755,10 +2762,10 @@
       <c r="J38" s="3">
         <v>42507</v>
       </c>
-      <c r="K38" s="20">
+      <c r="K38" s="17">
         <v>42507</v>
       </c>
-      <c r="L38" s="20">
+      <c r="L38" s="17">
         <v>42507</v>
       </c>
       <c r="M38" s="2" t="s">
@@ -2776,7 +2783,7 @@
       <c r="A39" s="6">
         <v>38</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="17">
         <v>42506</v>
       </c>
       <c r="C39" s="6" t="s">
@@ -2785,7 +2792,7 @@
       <c r="D39" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="E39" s="21" t="s">
+      <c r="E39" s="18" t="s">
         <v>129</v>
       </c>
       <c r="F39" s="6" t="s">
@@ -2797,16 +2804,16 @@
       <c r="H39" s="3">
         <v>42506</v>
       </c>
-      <c r="I39" s="20">
+      <c r="I39" s="17">
         <v>42507</v>
       </c>
-      <c r="J39" s="20">
+      <c r="J39" s="17">
         <v>42509</v>
       </c>
-      <c r="K39" s="20">
+      <c r="K39" s="17">
         <v>42507</v>
       </c>
-      <c r="L39" s="20">
+      <c r="L39" s="17">
         <v>42509</v>
       </c>
       <c r="M39" s="6" t="s">
@@ -2823,45 +2830,276 @@
       <c r="R39" s="5"/>
     </row>
     <row r="40" spans="1:18">
-      <c r="A40" s="22">
+      <c r="A40" s="6">
         <v>39</v>
       </c>
-      <c r="B40" s="18">
+      <c r="B40" s="17">
         <v>42517</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="E40" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="F40" s="22" t="s">
+      <c r="F40" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="G40" s="13">
+      <c r="G40" s="2">
         <v>1</v>
       </c>
-      <c r="H40" s="10">
+      <c r="H40" s="3">
         <v>42517</v>
       </c>
-      <c r="I40" s="1">
+      <c r="I40" s="17">
         <v>42520</v>
       </c>
-      <c r="J40" s="1">
+      <c r="J40" s="17">
         <v>42520</v>
       </c>
-      <c r="K40" s="1">
+      <c r="K40" s="17">
         <v>42520</v>
       </c>
+      <c r="L40" s="5"/>
+      <c r="M40" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
     </row>
     <row r="41" spans="1:18">
-      <c r="A41" s="17"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
+      <c r="A41" s="6">
+        <v>40</v>
+      </c>
+      <c r="B41" s="17">
+        <v>42524</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="3">
+        <v>42524</v>
+      </c>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42" s="6">
+        <v>41</v>
+      </c>
+      <c r="B42" s="17">
+        <v>42524</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="3">
+        <v>42524</v>
+      </c>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43" s="6">
+        <v>42</v>
+      </c>
+      <c r="B43" s="17">
+        <v>42524</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" s="3">
+        <v>42524</v>
+      </c>
+      <c r="I43" s="17">
+        <v>42527</v>
+      </c>
+      <c r="J43" s="17">
+        <v>42528</v>
+      </c>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44" s="6">
+        <v>43</v>
+      </c>
+      <c r="B44" s="17">
+        <v>42524</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G44" s="2"/>
+      <c r="H44" s="3">
+        <v>42524</v>
+      </c>
+      <c r="I44" s="17">
+        <v>42527</v>
+      </c>
+      <c r="J44" s="17">
+        <v>42528</v>
+      </c>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45" s="6">
+        <v>44</v>
+      </c>
+      <c r="B45" s="17">
+        <v>42524</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G45" s="2"/>
+      <c r="H45" s="3">
+        <v>42524</v>
+      </c>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46" s="6">
+        <v>45</v>
+      </c>
+      <c r="B46" s="17">
+        <v>42524</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G46" s="2"/>
+      <c r="H46" s="3">
+        <v>42524</v>
+      </c>
+      <c r="I46" s="17">
+        <v>42527</v>
+      </c>
+      <c r="J46" s="17">
+        <v>42528</v>
+      </c>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:Q39"/>
